--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -16,6 +16,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Mobile num</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>LandLine</t>
+  </si>
+  <si>
+    <t>Chaitali</t>
+  </si>
+  <si>
+    <t>Patkar</t>
+  </si>
+  <si>
+    <t>"8055486002</t>
+  </si>
+  <si>
+    <t>xyz.Thane</t>
+  </si>
+  <si>
+    <t>"400605"</t>
+  </si>
+  <si>
+    <t>Korum mall</t>
+  </si>
+  <si>
+    <t>"123456"</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +382,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>